--- a/resultAllBetsArray.xlsx
+++ b/resultAllBetsArray.xlsx
@@ -397,74 +397,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="3">
       <c r="B3" t="str">
-        <v>КА Унион</v>
+        <v>Андерлехт</v>
       </c>
       <c r="C3" t="str">
-        <v>Бока Хуниорс</v>
+        <v>Хоффенхайм</v>
       </c>
       <c r="D3" t="str">
-        <v>Сегодня в 03:15</v>
+        <v>Завтра в 01:00</v>
       </c>
       <c r="E3" t="str">
-        <v>2.9</v>
+        <v>2.26</v>
       </c>
       <c r="F3" t="str">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="G3" t="str">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>Уракан</v>
+        <v>Атлетик Б</v>
       </c>
       <c r="C4" t="str">
-        <v>Эстудиантес</v>
+        <v>Виктория Пльзень</v>
       </c>
       <c r="D4" t="str">
-        <v>Сегодня в 03:15</v>
+        <v>Завтра в 01:00</v>
       </c>
       <c r="E4" t="str">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="F4" t="str">
-        <v>3.0</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="str">
-        <v>2.49</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>Ривер Плейт</v>
+        <v>Аякс</v>
       </c>
       <c r="C5" t="str">
-        <v>Институто Кордоба</v>
+        <v>Галатасарай</v>
       </c>
       <c r="D5" t="str">
-        <v>Сегодня в 05:30</v>
+        <v>Завтра в 01:00</v>
       </c>
       <c r="E5" t="str">
-        <v>1.39</v>
+        <v>2.36</v>
       </c>
       <c r="F5" t="str">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="str">
-        <v>8.0</v>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Брага</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Лацио</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2.27</v>
+      </c>
+      <c r="F6" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Динамо К</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Ригас ФШ</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1.88</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="G7" t="str">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Лион</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Лудогорец</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E8" t="str">
+        <v>1.23</v>
+      </c>
+      <c r="F8" t="str">
+        <v>7.0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Маккаби Т-А</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Порту</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E9" t="str">
+        <v>5.6</v>
+      </c>
+      <c r="F9" t="str">
+        <v>4.6</v>
+      </c>
+      <c r="G9" t="str">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Мидтьюлланд</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Фенербахче</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E10" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="F10" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G10" t="str">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Ницца</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Боде Глимт</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2.55</v>
+      </c>
+      <c r="F11" t="str">
+        <v>3.85</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>Олимпиакос</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ФК Карабах</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1.31</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5.8</v>
+      </c>
+      <c r="G12" t="str">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>Реал С</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ПАОК</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1.63</v>
+      </c>
+      <c r="F13" t="str">
+        <v>3.85</v>
+      </c>
+      <c r="G13" t="str">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>Глазго Рейнджерс</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Юнион Ст.Гиллуа</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="G14" t="str">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>Рома</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Айнтрахт Фр</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1.76</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3.85</v>
+      </c>
+      <c r="G15" t="str">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>Славия Пр</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Мальме</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1.56</v>
+      </c>
+      <c r="F16" t="str">
+        <v>4.5</v>
+      </c>
+      <c r="G16" t="str">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>Твенте</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Бешикташ</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E17" t="str">
+        <v>1.94</v>
+      </c>
+      <c r="F17" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>Тоттенхэм</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Эльфсборг</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1.26</v>
+      </c>
+      <c r="F18" t="str">
+        <v>6.8</v>
+      </c>
+      <c r="G18" t="str">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>Ференцварош</v>
+      </c>
+      <c r="C19" t="str">
+        <v>АЗ Алкмаар</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="F19" t="str">
+        <v>3.25</v>
+      </c>
+      <c r="G19" t="str">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>ФКСБ</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Манчестер Юн</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="E20" t="str">
+        <v>5.8</v>
+      </c>
+      <c r="F20" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="G20" t="str">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultAllBetsArray.xlsx
+++ b/resultAllBetsArray.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,22 +413,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E3" t="str">
-        <v>2,26</v>
+        <v>2,28</v>
       </c>
       <c r="F3" t="str">
-        <v>3,65</v>
+        <v>3,63</v>
       </c>
       <c r="G3" t="str">
-        <v>3,05</v>
+        <v>3,09</v>
       </c>
       <c r="H3" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I3" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J3" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
+      </c>
+      <c r="K3" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344413</v>
       </c>
     </row>
     <row r="4">
@@ -442,22 +445,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E4" t="str">
-        <v>1,49</v>
+        <v>1,48</v>
       </c>
       <c r="F4" t="str">
         <v>4,4</v>
       </c>
       <c r="G4" t="str">
-        <v>6,8</v>
+        <v>7,41</v>
       </c>
       <c r="H4" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I4" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J4" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +474,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E5" t="str">
-        <v>2,36</v>
+        <v>2,29</v>
       </c>
       <c r="F5" t="str">
-        <v>3,9</v>
+        <v>3,99</v>
       </c>
       <c r="G5" t="str">
-        <v>2,75</v>
+        <v>2,84</v>
       </c>
       <c r="H5" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I5" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J5" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="6">
@@ -500,22 +503,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E6" t="str">
-        <v>2,27</v>
+        <v>2,28</v>
       </c>
       <c r="F6" t="str">
-        <v>3,65</v>
+        <v>3,6</v>
       </c>
       <c r="G6" t="str">
-        <v>3,05</v>
+        <v>3,1</v>
       </c>
       <c r="H6" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I6" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J6" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="7">
@@ -529,22 +532,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E7" t="str">
-        <v>1,88</v>
+        <v>1,82</v>
       </c>
       <c r="F7" t="str">
-        <v>3,8</v>
+        <v>3,89</v>
       </c>
       <c r="G7" t="str">
-        <v>4,0</v>
+        <v>4,29</v>
       </c>
       <c r="H7" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I7" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J7" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="8">
@@ -558,22 +561,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E8" t="str">
-        <v>1,21</v>
+        <v>1,2</v>
       </c>
       <c r="F8" t="str">
-        <v>7,2</v>
+        <v>7,33</v>
       </c>
       <c r="G8" t="str">
-        <v>13,0</v>
+        <v>14,07</v>
       </c>
       <c r="H8" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I8" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J8" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="9">
@@ -587,22 +590,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E9" t="str">
-        <v>5,6</v>
+        <v>5,69</v>
       </c>
       <c r="F9" t="str">
-        <v>4,6</v>
+        <v>4,54</v>
       </c>
       <c r="G9" t="str">
-        <v>1,54</v>
+        <v>1,55</v>
       </c>
       <c r="H9" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I9" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J9" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="10">
@@ -616,22 +619,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E10" t="str">
-        <v>3,8</v>
+        <v>4,09</v>
       </c>
       <c r="F10" t="str">
-        <v>3,65</v>
+        <v>3,69</v>
       </c>
       <c r="G10" t="str">
-        <v>1,97</v>
+        <v>1,91</v>
       </c>
       <c r="H10" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I10" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J10" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="11">
@@ -645,22 +648,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E11" t="str">
-        <v>2,55</v>
+        <v>2,5</v>
       </c>
       <c r="F11" t="str">
-        <v>3,85</v>
+        <v>3,84</v>
       </c>
       <c r="G11" t="str">
-        <v>2,55</v>
+        <v>2,64</v>
       </c>
       <c r="H11" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I11" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J11" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="12">
@@ -674,22 +677,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E12" t="str">
-        <v>1,3</v>
+        <v>1,33</v>
       </c>
       <c r="F12" t="str">
-        <v>6,0</v>
+        <v>5,51</v>
       </c>
       <c r="G12" t="str">
-        <v>9,8</v>
+        <v>9,52</v>
       </c>
       <c r="H12" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I12" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J12" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="13">
@@ -703,22 +706,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E13" t="str">
-        <v>1,63</v>
+        <v>1,6</v>
       </c>
       <c r="F13" t="str">
-        <v>3,85</v>
+        <v>4,0</v>
       </c>
       <c r="G13" t="str">
-        <v>5,8</v>
+        <v>6,2</v>
       </c>
       <c r="H13" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I13" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J13" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="14">
@@ -732,22 +735,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E14" t="str">
-        <v>2,15</v>
+        <v>2,13</v>
       </c>
       <c r="F14" t="str">
-        <v>3,65</v>
+        <v>3,6</v>
       </c>
       <c r="G14" t="str">
-        <v>3,3</v>
+        <v>3,45</v>
       </c>
       <c r="H14" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I14" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J14" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="15">
@@ -761,22 +764,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E15" t="str">
-        <v>1,76</v>
+        <v>1,74</v>
       </c>
       <c r="F15" t="str">
-        <v>3,85</v>
+        <v>3,89</v>
       </c>
       <c r="G15" t="str">
-        <v>4,6</v>
+        <v>4,79</v>
       </c>
       <c r="H15" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I15" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J15" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="16">
@@ -790,22 +793,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E16" t="str">
-        <v>1,56</v>
+        <v>1,55</v>
       </c>
       <c r="F16" t="str">
-        <v>4,5</v>
+        <v>4,48</v>
       </c>
       <c r="G16" t="str">
-        <v>5,4</v>
+        <v>5,94</v>
       </c>
       <c r="H16" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I16" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J16" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="17">
@@ -819,22 +822,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E17" t="str">
-        <v>1,9</v>
+        <v>1,88</v>
       </c>
       <c r="F17" t="str">
-        <v>4,1</v>
+        <v>4,21</v>
       </c>
       <c r="G17" t="str">
-        <v>3,65</v>
+        <v>3,71</v>
       </c>
       <c r="H17" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I17" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J17" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="18">
@@ -848,22 +851,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E18" t="str">
-        <v>1,27</v>
+        <v>1,26</v>
       </c>
       <c r="F18" t="str">
-        <v>6,6</v>
+        <v>6,95</v>
       </c>
       <c r="G18" t="str">
-        <v>9,6</v>
+        <v>10,08</v>
       </c>
       <c r="H18" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I18" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J18" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="19">
@@ -877,22 +880,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E19" t="str">
-        <v>2,4</v>
+        <v>2,41</v>
       </c>
       <c r="F19" t="str">
-        <v>3,25</v>
+        <v>3,29</v>
       </c>
       <c r="G19" t="str">
-        <v>3,15</v>
+        <v>3,14</v>
       </c>
       <c r="H19" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I19" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J19" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
     <row r="20">
@@ -909,24 +912,24 @@
         <v>5,8</v>
       </c>
       <c r="F20" t="str">
-        <v>4,2</v>
+        <v>4,1</v>
       </c>
       <c r="G20" t="str">
-        <v>1,59</v>
+        <v>1,61</v>
       </c>
       <c r="H20" t="str">
-        <v>30-01-2025 19:17</v>
+        <v>30-01-2025 20:50</v>
       </c>
       <c r="I20" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J20" t="str">
-        <v>5.70</v>
+        <v>4,16</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultAllBetsArray.xlsx
+++ b/resultAllBetsArray.xlsx
@@ -413,22 +413,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E3" t="str">
-        <v>2,28</v>
+        <v>2,26</v>
       </c>
       <c r="F3" t="str">
-        <v>3,63</v>
+        <v>3,68</v>
       </c>
       <c r="G3" t="str">
         <v>3,09</v>
       </c>
       <c r="H3" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I3" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J3" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
       <c r="K3" t="str">
         <v>https://betboom.ru/sport/football/126/239/1344413</v>
@@ -445,22 +445,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E4" t="str">
-        <v>1,48</v>
+        <v>1,46</v>
       </c>
       <c r="F4" t="str">
-        <v>4,4</v>
+        <v>4,51</v>
       </c>
       <c r="G4" t="str">
-        <v>7,41</v>
+        <v>7,53</v>
       </c>
       <c r="H4" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I4" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J4" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="5">
@@ -474,22 +474,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E5" t="str">
-        <v>2,29</v>
+        <v>2,45</v>
       </c>
       <c r="F5" t="str">
         <v>3,99</v>
       </c>
       <c r="G5" t="str">
-        <v>2,84</v>
+        <v>2,64</v>
       </c>
       <c r="H5" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I5" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J5" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="6">
@@ -503,22 +503,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E6" t="str">
-        <v>2,28</v>
+        <v>2,26</v>
       </c>
       <c r="F6" t="str">
         <v>3,6</v>
       </c>
       <c r="G6" t="str">
-        <v>3,1</v>
+        <v>3,15</v>
       </c>
       <c r="H6" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I6" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J6" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="7">
@@ -532,22 +532,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E7" t="str">
-        <v>1,82</v>
+        <v>1,83</v>
       </c>
       <c r="F7" t="str">
-        <v>3,89</v>
+        <v>3,88</v>
       </c>
       <c r="G7" t="str">
-        <v>4,29</v>
+        <v>4,28</v>
       </c>
       <c r="H7" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I7" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J7" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>14,07</v>
       </c>
       <c r="H8" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I8" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J8" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         <v>1,55</v>
       </c>
       <c r="H9" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I9" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J9" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="10">
@@ -628,13 +628,13 @@
         <v>1,91</v>
       </c>
       <c r="H10" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I10" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J10" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="11">
@@ -648,22 +648,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E11" t="str">
-        <v>2,5</v>
+        <v>2,56</v>
       </c>
       <c r="F11" t="str">
-        <v>3,84</v>
+        <v>3,83</v>
       </c>
       <c r="G11" t="str">
-        <v>2,64</v>
+        <v>2,59</v>
       </c>
       <c r="H11" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I11" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J11" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         <v>9,52</v>
       </c>
       <c r="H12" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I12" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J12" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="13">
@@ -715,13 +715,13 @@
         <v>6,2</v>
       </c>
       <c r="H13" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I13" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J13" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="14">
@@ -744,13 +744,13 @@
         <v>3,45</v>
       </c>
       <c r="H14" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I14" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J14" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="15">
@@ -764,22 +764,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E15" t="str">
-        <v>1,74</v>
+        <v>1,78</v>
       </c>
       <c r="F15" t="str">
-        <v>3,89</v>
+        <v>3,75</v>
       </c>
       <c r="G15" t="str">
-        <v>4,79</v>
+        <v>4,8</v>
       </c>
       <c r="H15" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I15" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J15" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="16">
@@ -802,13 +802,13 @@
         <v>5,94</v>
       </c>
       <c r="H16" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I16" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J16" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="17">
@@ -822,22 +822,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E17" t="str">
-        <v>1,88</v>
+        <v>1,9</v>
       </c>
       <c r="F17" t="str">
-        <v>4,21</v>
+        <v>4,14</v>
       </c>
       <c r="G17" t="str">
-        <v>3,71</v>
+        <v>3,69</v>
       </c>
       <c r="H17" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I17" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J17" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="18">
@@ -851,22 +851,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E18" t="str">
-        <v>1,26</v>
+        <v>1,28</v>
       </c>
       <c r="F18" t="str">
-        <v>6,95</v>
+        <v>6,64</v>
       </c>
       <c r="G18" t="str">
-        <v>10,08</v>
+        <v>9,11</v>
       </c>
       <c r="H18" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I18" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J18" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="19">
@@ -880,22 +880,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E19" t="str">
-        <v>2,41</v>
+        <v>2,46</v>
       </c>
       <c r="F19" t="str">
         <v>3,29</v>
       </c>
       <c r="G19" t="str">
-        <v>3,14</v>
+        <v>3,04</v>
       </c>
       <c r="H19" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I19" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J19" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
     <row r="20">
@@ -918,13 +918,13 @@
         <v>1,61</v>
       </c>
       <c r="H20" t="str">
-        <v>30-01-2025 20:50</v>
+        <v>30-01-2025 21:16</v>
       </c>
       <c r="I20" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J20" t="str">
-        <v>4,16</v>
+        <v>3,72</v>
       </c>
     </row>
   </sheetData>

--- a/resultAllBetsArray.xlsx
+++ b/resultAllBetsArray.xlsx
@@ -413,22 +413,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E3" t="str">
-        <v>2,26</v>
+        <v>2,25</v>
       </c>
       <c r="F3" t="str">
-        <v>3,68</v>
+        <v>3,69</v>
       </c>
       <c r="G3" t="str">
         <v>3,09</v>
       </c>
       <c r="H3" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I3" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J3" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
       </c>
       <c r="K3" t="str">
         <v>https://betboom.ru/sport/football/126/239/1344413</v>
@@ -445,22 +445,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E4" t="str">
-        <v>1,46</v>
+        <v>1,44</v>
       </c>
       <c r="F4" t="str">
-        <v>4,51</v>
+        <v>4,68</v>
       </c>
       <c r="G4" t="str">
-        <v>7,53</v>
+        <v>7,58</v>
       </c>
       <c r="H4" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I4" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J4" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K4" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344414</v>
       </c>
     </row>
     <row r="5">
@@ -474,22 +477,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E5" t="str">
-        <v>2,45</v>
+        <v>2,34</v>
       </c>
       <c r="F5" t="str">
-        <v>3,99</v>
+        <v>3,85</v>
       </c>
       <c r="G5" t="str">
-        <v>2,64</v>
+        <v>2,85</v>
       </c>
       <c r="H5" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I5" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J5" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K5" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344419</v>
       </c>
     </row>
     <row r="6">
@@ -503,22 +509,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E6" t="str">
-        <v>2,26</v>
+        <v>2,39</v>
       </c>
       <c r="F6" t="str">
-        <v>3,6</v>
+        <v>3,58</v>
       </c>
       <c r="G6" t="str">
-        <v>3,15</v>
+        <v>2,93</v>
       </c>
       <c r="H6" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I6" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J6" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K6" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344420</v>
       </c>
     </row>
     <row r="7">
@@ -532,22 +541,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E7" t="str">
-        <v>1,83</v>
+        <v>1,81</v>
       </c>
       <c r="F7" t="str">
         <v>3,88</v>
       </c>
       <c r="G7" t="str">
-        <v>4,28</v>
+        <v>4,38</v>
       </c>
       <c r="H7" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I7" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J7" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K7" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344423</v>
       </c>
     </row>
     <row r="8">
@@ -561,22 +573,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E8" t="str">
-        <v>1,2</v>
+        <v>1,23</v>
       </c>
       <c r="F8" t="str">
-        <v>7,33</v>
+        <v>6,89</v>
       </c>
       <c r="G8" t="str">
-        <v>14,07</v>
+        <v>12,07</v>
       </c>
       <c r="H8" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I8" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J8" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K8" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344425</v>
       </c>
     </row>
     <row r="9">
@@ -590,22 +605,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E9" t="str">
-        <v>5,69</v>
+        <v>5,8</v>
       </c>
       <c r="F9" t="str">
-        <v>4,54</v>
+        <v>4,65</v>
       </c>
       <c r="G9" t="str">
-        <v>1,55</v>
+        <v>1,54</v>
       </c>
       <c r="H9" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I9" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J9" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K9" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344427</v>
       </c>
     </row>
     <row r="10">
@@ -619,22 +637,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E10" t="str">
-        <v>4,09</v>
+        <v>4,08</v>
       </c>
       <c r="F10" t="str">
-        <v>3,69</v>
+        <v>3,63</v>
       </c>
       <c r="G10" t="str">
-        <v>1,91</v>
+        <v>1,93</v>
       </c>
       <c r="H10" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I10" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J10" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K10" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344428</v>
       </c>
     </row>
     <row r="11">
@@ -648,22 +669,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E11" t="str">
-        <v>2,56</v>
+        <v>2,78</v>
       </c>
       <c r="F11" t="str">
-        <v>3,83</v>
+        <v>3,78</v>
       </c>
       <c r="G11" t="str">
-        <v>2,59</v>
+        <v>2,41</v>
       </c>
       <c r="H11" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I11" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J11" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K11" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344431</v>
       </c>
     </row>
     <row r="12">
@@ -677,22 +701,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E12" t="str">
-        <v>1,33</v>
+        <v>1,36</v>
       </c>
       <c r="F12" t="str">
-        <v>5,51</v>
+        <v>5,31</v>
       </c>
       <c r="G12" t="str">
-        <v>9,52</v>
+        <v>8,72</v>
       </c>
       <c r="H12" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I12" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J12" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K12" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344432</v>
       </c>
     </row>
     <row r="13">
@@ -706,22 +733,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E13" t="str">
-        <v>1,6</v>
+        <v>1,77</v>
       </c>
       <c r="F13" t="str">
-        <v>4,0</v>
+        <v>3,59</v>
       </c>
       <c r="G13" t="str">
-        <v>6,2</v>
+        <v>5,09</v>
       </c>
       <c r="H13" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I13" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J13" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K13" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344435</v>
       </c>
     </row>
     <row r="14">
@@ -735,22 +765,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E14" t="str">
-        <v>2,13</v>
+        <v>2,17</v>
       </c>
       <c r="F14" t="str">
-        <v>3,6</v>
+        <v>3,59</v>
       </c>
       <c r="G14" t="str">
-        <v>3,45</v>
+        <v>3,34</v>
       </c>
       <c r="H14" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I14" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J14" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K14" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344437</v>
       </c>
     </row>
     <row r="15">
@@ -764,22 +797,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E15" t="str">
-        <v>1,78</v>
+        <v>1,76</v>
       </c>
       <c r="F15" t="str">
-        <v>3,75</v>
+        <v>3,69</v>
       </c>
       <c r="G15" t="str">
-        <v>4,8</v>
+        <v>4,99</v>
       </c>
       <c r="H15" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I15" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J15" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K15" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344440</v>
       </c>
     </row>
     <row r="16">
@@ -793,22 +829,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E16" t="str">
-        <v>1,55</v>
+        <v>1,61</v>
       </c>
       <c r="F16" t="str">
-        <v>4,48</v>
+        <v>4,28</v>
       </c>
       <c r="G16" t="str">
-        <v>5,94</v>
+        <v>5,47</v>
       </c>
       <c r="H16" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I16" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J16" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344442</v>
       </c>
     </row>
     <row r="17">
@@ -822,22 +861,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E17" t="str">
-        <v>1,9</v>
+        <v>1,87</v>
       </c>
       <c r="F17" t="str">
-        <v>4,14</v>
+        <v>3,99</v>
       </c>
       <c r="G17" t="str">
-        <v>3,69</v>
+        <v>3,94</v>
       </c>
       <c r="H17" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I17" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J17" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K17" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344444</v>
       </c>
     </row>
     <row r="18">
@@ -854,19 +896,22 @@
         <v>1,28</v>
       </c>
       <c r="F18" t="str">
-        <v>6,64</v>
+        <v>6,67</v>
       </c>
       <c r="G18" t="str">
-        <v>9,11</v>
+        <v>9,3</v>
       </c>
       <c r="H18" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I18" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J18" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K18" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344446</v>
       </c>
     </row>
     <row r="19">
@@ -880,22 +925,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E19" t="str">
-        <v>2,46</v>
+        <v>2,37</v>
       </c>
       <c r="F19" t="str">
-        <v>3,29</v>
+        <v>3,37</v>
       </c>
       <c r="G19" t="str">
-        <v>3,04</v>
+        <v>3,13</v>
       </c>
       <c r="H19" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I19" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J19" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344447</v>
       </c>
     </row>
     <row r="20">
@@ -909,22 +957,25 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="E20" t="str">
-        <v>5,8</v>
+        <v>5,5</v>
       </c>
       <c r="F20" t="str">
-        <v>4,1</v>
+        <v>4,0</v>
       </c>
       <c r="G20" t="str">
-        <v>1,61</v>
+        <v>1,65</v>
       </c>
       <c r="H20" t="str">
-        <v>30-01-2025 21:16</v>
+        <v>30-01-2025 23:58</v>
       </c>
       <c r="I20" t="str">
         <v>31-01-2025 01:00</v>
       </c>
       <c r="J20" t="str">
-        <v>3,72</v>
+        <v>1,03</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://betboom.ru/sport/football/126/239/1344448</v>
       </c>
     </row>
   </sheetData>
